--- a/data/trans_dic/P25A$medico-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$medico-Clase-trans_dic.xlsx
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1005732383450727</v>
+        <v>0.108625254247067</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1064310509704698</v>
+        <v>0.1109292339042031</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1050558045331334</v>
+        <v>0.1025565167015933</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
@@ -690,16 +690,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.04816040977233519</v>
+        <v>0.04819121567085374</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08178699917792503</v>
+        <v>0.08373174670392089</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.08038932928928166</v>
+        <v>0.0749257031394968</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1044905254549327</v>
+        <v>0.09753428107860673</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2746924694318819</v>
+        <v>0.2696227213414513</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2552360572455934</v>
+        <v>0.2584257576328748</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.286147152109282</v>
+        <v>0.2837528213410416</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1628015198219342</v>
+        <v>0.1739475750941953</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.08508857332978836</v>
+        <v>0.0909467847941595</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2140554909071942</v>
+        <v>0.2022842768088281</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2073189140933498</v>
+        <v>0.2160530794799122</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1878418753365513</v>
+        <v>0.1844357498857761</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2287477039358905</v>
+        <v>0.2304254269198079</v>
       </c>
     </row>
     <row r="7">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08237859060411841</v>
+        <v>0.08260427075309305</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.04703865352946437</v>
+        <v>0.04400705348425903</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08407950036028426</v>
+        <v>0.08545773318679421</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07616428034417794</v>
+        <v>0.07783091111268824</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06368249235811904</v>
+        <v>0.06553433804725491</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.03992508055522307</v>
+        <v>0.04133812002723369</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.09406265713495029</v>
+        <v>0.09711265233617054</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2436685099564307</v>
+        <v>0.2481504870025423</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1822295733130136</v>
+        <v>0.1747317585965943</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2558963873455098</v>
+        <v>0.2600296632311885</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1702901536553785</v>
+        <v>0.1506318639227205</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1770136035600179</v>
+        <v>0.1853434138279377</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2443725136115004</v>
+        <v>0.2522661220507226</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1799618772643374</v>
+        <v>0.1881926128466238</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1421264266532032</v>
+        <v>0.1413259865881334</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2125213718071351</v>
+        <v>0.221669628630486</v>
       </c>
     </row>
     <row r="10">
@@ -893,29 +893,29 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1652609920490709</v>
+        <v>0.1700261065268218</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1247987798177854</v>
+        <v>0.1196366035211422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1275850606578926</v>
+        <v>0.1231716394382718</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02560076834355434</v>
+        <v>0.02604321204839616</v>
       </c>
       <c r="H11" s="5" t="inlineStr"/>
       <c r="I11" s="5" t="n">
-        <v>0.1389217410429376</v>
+        <v>0.1393749029797817</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1153599347200119</v>
+        <v>0.1097708873552827</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1089203845771599</v>
+        <v>0.1101117706764502</v>
       </c>
     </row>
     <row r="12">
@@ -926,29 +926,29 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3294524733000728</v>
+        <v>0.3307438999951962</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2574098990316913</v>
+        <v>0.2468725838065378</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2938597801741045</v>
+        <v>0.2869737001207377</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2307376649316289</v>
+        <v>0.2325077876665183</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2114970072200345</v>
+        <v>0.2332326386961583</v>
       </c>
       <c r="H12" s="5" t="inlineStr"/>
       <c r="I12" s="5" t="n">
-        <v>0.2834255653626199</v>
+        <v>0.2772592643887236</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2342405517770014</v>
+        <v>0.2302446710522672</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2498849997555622</v>
+        <v>0.2520555095611436</v>
       </c>
     </row>
     <row r="13">
@@ -998,31 +998,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2733655270637284</v>
+        <v>0.2727224944384921</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1762947784874195</v>
+        <v>0.1756291335938444</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1599295853171152</v>
+        <v>0.1658448442665681</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01824259507792855</v>
+        <v>0.01625848311417973</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04568533235955897</v>
+        <v>0.04623547550808651</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04626985954398207</v>
+        <v>0.04717974048727438</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2252414127005871</v>
+        <v>0.2309902971932728</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1538939120551925</v>
+        <v>0.1477249433324716</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1428500804441995</v>
+        <v>0.1387879503250925</v>
       </c>
     </row>
     <row r="15">
@@ -1033,31 +1033,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3799276397561257</v>
+        <v>0.3794614999368014</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2739835369554456</v>
+        <v>0.2705138759389484</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2746358241776098</v>
+        <v>0.2683543362634692</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1582051049810369</v>
+        <v>0.1607356935741024</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1563774526356863</v>
+        <v>0.1591794025099586</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1786858291484782</v>
+        <v>0.1763333303007062</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3191352331246027</v>
+        <v>0.325975791129111</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2262372677060778</v>
+        <v>0.2242097002153146</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2293572107132434</v>
+        <v>0.2299514028355166</v>
       </c>
     </row>
     <row r="16">
@@ -1107,31 +1107,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3226305435807289</v>
+        <v>0.3086563910464827</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.181375713528854</v>
+        <v>0.1811135517850348</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.133242149099851</v>
+        <v>0.1266047123739365</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05228884728187001</v>
+        <v>0.05346420253278307</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02924764581586679</v>
+        <v>0.02840100457561169</v>
       </c>
       <c r="H17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2406250101359813</v>
+        <v>0.2374883505518621</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1392559447016266</v>
+        <v>0.1375876218740969</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.08490734721026738</v>
+        <v>0.08789711265814046</v>
       </c>
     </row>
     <row r="18">
@@ -1142,31 +1142,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.5652018080353062</v>
+        <v>0.541916315209081</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3337017256607768</v>
+        <v>0.3420390582042938</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.281397553493464</v>
+        <v>0.2816053710660999</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2864188320858568</v>
+        <v>0.311754065731602</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1601972343962486</v>
+        <v>0.1599251399182658</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.09393643836204635</v>
+        <v>0.09770781759633507</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4226037467609915</v>
+        <v>0.4221529858232902</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2558391042040692</v>
+        <v>0.253777231884514</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1807372416684759</v>
+        <v>0.1806138950852403</v>
       </c>
     </row>
     <row r="19">
@@ -1221,22 +1221,22 @@
       </c>
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="n">
-        <v>0.0589730762361419</v>
+        <v>0.06463361415335649</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.1056768362096053</v>
+        <v>0.09805132901203611</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.02806780867083843</v>
+        <v>0.02820297225577218</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.05369771007885497</v>
+        <v>0.05530882180736856</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1084451760321096</v>
+        <v>0.1039544525237158</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02421544985543686</v>
+        <v>0.02442475915060003</v>
       </c>
     </row>
     <row r="21">
@@ -1248,26 +1248,26 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.6723222940372414</v>
+        <v>0.6822193722542491</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.2674339640203302</v>
+        <v>0.2681886324131123</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3210318710515192</v>
+        <v>0.3172347759846573</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2328306416649172</v>
+        <v>0.2319892782355352</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2371278751041124</v>
+        <v>0.2471498251253443</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3058075164373517</v>
+        <v>0.3129379988758562</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2030901592088686</v>
+        <v>0.1824634522320506</v>
       </c>
     </row>
     <row r="22">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2392550142112467</v>
+        <v>0.2403566425432822</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1700787954289705</v>
+        <v>0.1690821537350692</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1582155950777892</v>
+        <v>0.162979913051466</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.05598859083642578</v>
+        <v>0.05196309302890597</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0658460273669506</v>
+        <v>0.06221764087014932</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06095407678971579</v>
+        <v>0.06304824885368995</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.189170553016056</v>
+        <v>0.1894305104954264</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1413817325355546</v>
+        <v>0.14072059495898</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1322965311322175</v>
+        <v>0.1317571091035711</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3093265243793276</v>
+        <v>0.3059427945825126</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2275131113615638</v>
+        <v>0.2298281305972841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2240605516341286</v>
+        <v>0.2286424064488473</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1244049588907573</v>
+        <v>0.1252948806278933</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1217479827233361</v>
+        <v>0.1222760265302607</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1222386176603383</v>
+        <v>0.1254483385678384</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2451686727437549</v>
+        <v>0.2453251863001267</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1844580166891115</v>
+        <v>0.1867104644191261</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1817043583254465</v>
+        <v>0.1814352674603215</v>
       </c>
     </row>
     <row r="25">
@@ -1607,13 +1607,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>9643</v>
+        <v>10415</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>11928</v>
+        <v>12432</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>9807</v>
+        <v>9574</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
@@ -1622,16 +1622,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2957</v>
+        <v>2959</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>10955</v>
+        <v>11215</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13165</v>
+        <v>12270</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>16170</v>
+        <v>15093</v>
       </c>
     </row>
     <row r="7">
@@ -1642,31 +1642,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>26337</v>
+        <v>25851</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28605</v>
+        <v>28962</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>26712</v>
+        <v>26489</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>6197</v>
+        <v>6622</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4399</v>
+        <v>4702</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>13142</v>
+        <v>12419</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>27769</v>
+        <v>28939</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>30762</v>
+        <v>30205</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>35398</v>
+        <v>35658</v>
       </c>
     </row>
     <row r="8">
@@ -1751,13 +1751,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>6577</v>
+        <v>6595</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4230</v>
+        <v>3957</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>6126</v>
+        <v>6226</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0</v>
@@ -1766,16 +1766,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>5098</v>
+        <v>5209</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>7661</v>
+        <v>7884</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>5748</v>
+        <v>5952</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>13149</v>
+        <v>13575</v>
       </c>
     </row>
     <row r="11">
@@ -1786,31 +1786,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19454</v>
+        <v>19812</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>16386</v>
+        <v>15712</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>18643</v>
+        <v>18944</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>6890</v>
+        <v>6095</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>9569</v>
+        <v>10019</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16356</v>
+        <v>16885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>21650</v>
+        <v>22640</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>20463</v>
+        <v>20348</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>29708</v>
+        <v>30987</v>
       </c>
     </row>
     <row r="12">
@@ -1895,29 +1895,29 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>17634</v>
+        <v>18142</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>20216</v>
+        <v>19380</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>12539</v>
+        <v>12106</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="H14" s="6" t="inlineStr"/>
       <c r="I14" s="6" t="n">
-        <v>18210</v>
+        <v>18269</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22744</v>
+        <v>21642</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>12142</v>
+        <v>12274</v>
       </c>
     </row>
     <row r="15">
@@ -1928,29 +1928,29 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>35154</v>
+        <v>35292</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>41698</v>
+        <v>39991</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28881</v>
+        <v>28205</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5624</v>
+        <v>5668</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7438</v>
+        <v>8203</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="n">
-        <v>37151</v>
+        <v>36343</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>46183</v>
+        <v>45395</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>27855</v>
+        <v>28097</v>
       </c>
     </row>
     <row r="16">
@@ -2035,31 +2035,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>74388</v>
+        <v>74213</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>56227</v>
+        <v>56015</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>36423</v>
+        <v>37770</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1156</v>
+        <v>1030</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5169</v>
+        <v>5231</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4010</v>
+        <v>4089</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>75560</v>
+        <v>77489</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>66495</v>
+        <v>63830</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>44914</v>
+        <v>43637</v>
       </c>
     </row>
     <row r="19">
@@ -2070,31 +2070,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>103386</v>
+        <v>103259</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>87383</v>
+        <v>86277</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>62546</v>
+        <v>61116</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>10021</v>
+        <v>10181</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>17694</v>
+        <v>18011</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>15487</v>
+        <v>15284</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>107058</v>
+        <v>109353</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>97754</v>
+        <v>96878</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>72114</v>
+        <v>72300</v>
       </c>
     </row>
     <row r="20">
@@ -2179,31 +2179,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>20515</v>
+        <v>19627</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>23060</v>
+        <v>23026</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14349</v>
+        <v>13634</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1856</v>
+        <v>1898</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2031</v>
+        <v>1972</v>
       </c>
       <c r="H22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>23842</v>
+        <v>23531</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>27376</v>
+        <v>27048</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>15104</v>
+        <v>15636</v>
       </c>
     </row>
     <row r="23">
@@ -2214,31 +2214,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>35939</v>
+        <v>34459</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>42426</v>
+        <v>43486</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>30305</v>
+        <v>30327</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>10167</v>
+        <v>11066</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11125</v>
+        <v>11106</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6594</v>
+        <v>6859</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>41873</v>
+        <v>41829</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>50294</v>
+        <v>49889</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>32151</v>
+        <v>32129</v>
       </c>
     </row>
     <row r="24">
@@ -2328,22 +2328,22 @@
       </c>
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="n">
-        <v>2889</v>
+        <v>3166</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>6440</v>
+        <v>5975</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2927</v>
+        <v>3015</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>7261</v>
+        <v>6960</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1010</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="27">
@@ -2355,26 +2355,26 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>4045</v>
+        <v>4104</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>13101</v>
+        <v>13138</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>19563</v>
+        <v>19332</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8413</v>
+        <v>8383</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12927</v>
+        <v>13473</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20475</v>
+        <v>20952</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>8470</v>
+        <v>7610</v>
       </c>
     </row>
     <row r="28">
@@ -2459,31 +2459,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>149212</v>
+        <v>149899</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>138797</v>
+        <v>137983</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>95799</v>
+        <v>98684</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>14038</v>
+        <v>13029</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>25315</v>
+        <v>23920</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>20391</v>
+        <v>21091</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>165408</v>
+        <v>165636</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>169734</v>
+        <v>168940</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>124361</v>
+        <v>123854</v>
       </c>
     </row>
     <row r="31">
@@ -2494,31 +2494,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>192912</v>
+        <v>190802</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>185667</v>
+        <v>187557</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>135668</v>
+        <v>138442</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>31193</v>
+        <v>31416</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>46807</v>
+        <v>47010</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>40892</v>
+        <v>41965</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>214373</v>
+        <v>214509</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>221448</v>
+        <v>224152</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>170806</v>
+        <v>170553</v>
       </c>
     </row>
     <row r="32">
